--- a/src/attributions/attributions_ig_traj_403.xlsx
+++ b/src/attributions/attributions_ig_traj_403.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG18"/>
+  <dimension ref="A1:GG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07041827229812746</v>
+        <v>0.06817736829919668</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1044623785417915</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03285620168375549</v>
+        <v>-0.0131523175880039</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.06566044146921518</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.06488234078154032</v>
+        <v>0.0296171086930416</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05734380125994363</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02245417016241833</v>
+        <v>-0.015903194786389</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.06913185017249233</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.001328314730644278</v>
+        <v>0.0006384963433124175</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.00416858581773698</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-6.247966783113364e-11</v>
+        <v>-9.698408631474894e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.001316413439561255</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,28 +2220,28 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.06338715326748248</v>
+        <v>0.02388387343436447</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.06337425207921585</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.07303876289242547</v>
+        <v>0.02792959074103706</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0.00247903818412815</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.03459575465109496</v>
+        <v>0.00354777264718351</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.001971232491828788</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01125277337828521</v>
+        <v>-0.02084677388912812</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.01152220348885222</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1277883628365328</v>
+        <v>0.06452269179905887</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02410494889556362</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.01200872087443421</v>
+        <v>-0.01446258652331276</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.04994025735755922</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2307,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.006409310638453796</v>
+        <v>0.0160611284633702</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.04622495333762602</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.009565096961135919</v>
+        <v>-0.02135282427511212</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.01787064023150686</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04985794377320058</v>
+        <v>0.04351860165752339</v>
       </c>
       <c r="BN4" t="n">
         <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03851831970568656</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.006950589743777245</v>
+        <v>0.00932338962355388</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.0124965605743812</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2361,46 +2361,46 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.008171496964789426</v>
+        <v>0.03871092640192611</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.07626460146399909</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.01734999464222217</v>
+        <v>-0.02087941462605746</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.009469855595248537</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.04614682066731712</v>
+        <v>-0.01506402021245821</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03013068981206371</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01279422100511875</v>
+        <v>-0.00259072301709946</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03739158189059448</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,19 +2415,19 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0003141990695086369</v>
+        <v>0.007116151944535803</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.01457193576322591</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.09633978663489155</v>
+        <v>0.01261031521107712</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.005167638879234704</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0452751872188727</v>
+        <v>-0.008492926170353908</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.02833039328121318</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.005456733437514102</v>
+        <v>-0.006880018646247143</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.03499845367271342</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2466,22 +2466,22 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.135490672095522</v>
+        <v>-0.0144040562301518</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.01189166163900205</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.01372790635024175</v>
+        <v>0.0055898862586951</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.06743485126625685</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02368511608874815</v>
+        <v>-0.01117671022084722</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02290061342842204</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07637699727962825</v>
+        <v>0.01752651401258854</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.0129567236186389</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,22 +2520,22 @@
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.05804648998140659</v>
+        <v>0.008587715165533718</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.05353529740667163</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01155404121423842</v>
+        <v>-0.009617141761593383</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.0347698630537207</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.03987312143248155</v>
+        <v>0.0001106170419303974</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.04240623740191037</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.08145950320693275</v>
+        <v>-0.004634337231542574</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.006572290515366866</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0205715427345283</v>
+        <v>0.001178453677252778</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.002265089773493653</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.04133204420287786</v>
+        <v>-0.01438031504423733</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.03800366117251338</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0364220093724785</v>
+        <v>-0.009222572167477891</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.01849533260687229</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.013525210869434</v>
+        <v>-0.003378081020453382</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.0319557649577359</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
@@ -2625,28 +2625,28 @@
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01168449319755993</v>
+        <v>-0.01182207257189984</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.0246038808144098</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01289356472553652</v>
+        <v>-0.02070916785665378</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.006795276865964437</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2658,19 +2658,19 @@
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0003630814317742866</v>
+        <v>-0.001520469135012262</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.05870853274627123</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.007699179485245402</v>
+        <v>-0.00307829838192898</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.04743015248462611</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.02969772506776636</v>
+        <v>-0.02417151070826672</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.06538351115022055</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.006043427185503298</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2714,25 +2714,25 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1873311670650538</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05579676655029431</v>
+        <v>-0.06358625590703348</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04197953033079458</v>
+        <v>-0.08801939443441424</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.05388746909454489</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,25 +2741,25 @@
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.09767308955450306</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01350003008244116</v>
+        <v>-0.04875423382252699</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01101240673696172</v>
+        <v>-0.1015628860244703</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.03758639801077695</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -2768,25 +2768,25 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.009449014767357549</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.007005489529992304</v>
+        <v>1.072157667061936e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.006751235510155518</v>
+        <v>0.0004724884008374676</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.519094048174286e-11</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.05090605954800644</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.003875981204969583</v>
+        <v>0.0775413025718521</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03543924533153305</v>
+        <v>0.1307687981902418</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0008392146782470432</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.02048087464065855</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02301901333371619</v>
+        <v>-0.03032813097293459</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.06188745694950217</v>
+        <v>-0.05998174257369632</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.01134136197701415</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,43 +2849,43 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.2583863943366981</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05624766587090925</v>
+        <v>0.09237926387005529</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.09650260078384294</v>
+        <v>0.1831599984607465</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.102490109025761</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.003274893548011172</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0005665730137744316</v>
+        <v>-0.1522490818401873</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.03863071868714722</v>
+        <v>-0.07604337584236701</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,106 +2894,106 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01487825211437128</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1212762761300591</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01302952113757701</v>
+        <v>0.01328239063378319</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.02246619807747377</v>
+        <v>0.1783873933487395</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.08152633126780436</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.169696194188285</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0513531289143601</v>
+        <v>-0.008597472981506003</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.05426891630647443</v>
+        <v>0.01101554269228368</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.03262554457336268</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.05824875829882258</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.02391854995742278</v>
+        <v>-0.0005165479527153031</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.009584721594482379</v>
+        <v>0.01169206555370133</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.03115385070822596</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.04151916137340914</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.008788756182069389</v>
+        <v>-0.1066485269973158</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.04244851975745273</v>
+        <v>-0.1919478600922161</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,79 +3002,79 @@
         <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.02029556650882183</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.03184856109265805</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.01668309712727592</v>
+        <v>0.008166047347019893</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.002789914336309167</v>
+        <v>0.03636055513043886</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01849197254598901</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.001482439081979541</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.003494538866238172</v>
+        <v>0.0371749011984535</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.04890206551382036</v>
+        <v>0.01331763393427136</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.0005321186145715353</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.08605492471808812</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01467598463725868</v>
+        <v>0.04160669794235169</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04441065825823654</v>
+        <v>0.04895917775762935</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,61 +3083,61 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.009889820557572929</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.02889679547931091</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.01270736774288531</v>
+        <v>-0.01824938401172765</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.008778322082867661</v>
+        <v>0.06573583487499969</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.05776386991318495</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.02894635670975156</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.0308040860026457</v>
+        <v>-0.02889630642556935</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.04530273539316593</v>
+        <v>0.07680309220671336</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.02969405611787162</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,79 +3146,79 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.02746512971830712</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.0385213316352846</v>
+        <v>-0.02341079801183845</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.05527724646437617</v>
+        <v>0.03601345953116687</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.04623531093754626</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.03600188218839418</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.01914436059812485</v>
+        <v>0.01436955342623091</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.002143176498182624</v>
+        <v>0.03684445056486234</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.03280787330609022</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.009370815306885043</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04717719025050504</v>
+        <v>-0.04672465571763405</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.002840860482791756</v>
+        <v>0.02548862343299103</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.00719375824936038</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
         <v>-0</v>
@@ -3227,25 +3227,25 @@
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.06400904574100864</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.000474386464944222</v>
+        <v>0.04066728803189115</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.04734514750527372</v>
+        <v>0.08732716087109864</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.04859711007975974</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>-0</v>
@@ -3254,129 +3254,129 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.01247801500298819</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.0249786091117003</v>
+        <v>-0.06274833313740349</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0.002961315451201657</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04109571523745401</v>
+        <v>0.01630664063190194</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1175886743994164</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03125121178235593</v>
+        <v>-0.01887158642398301</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.009689625114348522</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03826048180741486</v>
+        <v>-0.003557559734007315</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0690958268056209</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.008127362975846575</v>
+        <v>-0.02603065821413193</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.01392504960704725</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001205524448951767</v>
+        <v>-0.0009717344678422765</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02057395298172991</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02332416751706849</v>
+        <v>-0.0003521384412388784</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.00174993069250878</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>-0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02880726987670124</v>
+        <v>0.02818927293602419</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06107578398349287</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.02754683478236108</v>
+        <v>0.03508865291161517</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.004127084608617568</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.02649596202745319</v>
+        <v>-0.0003512314270371948</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.006374854134443195</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.00609832283981784</v>
+        <v>-0.01807734016048768</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.003414026356682362</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1173635900252806</v>
+        <v>0.03658345012257944</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02265677894160688</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.0169368358143023</v>
+        <v>-0.009228480603634426</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.005253524591758744</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.003576348791322858</v>
+        <v>0.0008907578754677882</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.05852490508767511</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01318838649842863</v>
+        <v>-0.0196858625264174</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.001877034710632937</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04264867492297286</v>
+        <v>0.04075065313171525</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03469625218032429</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03485982982092523</v>
+        <v>0.01468315814132989</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01288049573654493</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,214 +3496,214 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.009652147989488179</v>
+        <v>0.01056708448949826</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05345354715830124</v>
+        <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.01150993678735194</v>
+        <v>-0.01780745825149483</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.01866263036378899</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03612153745522319</v>
+        <v>0.002045909303514875</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03535251974705598</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01244989605737989</v>
+        <v>5.198403694807939e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.006359510457585205</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.03520838132120938</v>
+        <v>0.002423024560358169</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02852236975893541</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.08564418812026152</v>
+        <v>0.00544689122714799</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01333241421287421</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03795262899492651</v>
+        <v>0.00841160380000837</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03219768451935066</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.004381003681172382</v>
+        <v>0.0009620152489947096</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.003804321859797987</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1077250329809936</v>
+        <v>0.003291440540760907</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.0140068573275041</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.0003359200612643335</v>
+        <v>-0.0002873827004281968</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.0305551854467712</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.005725788645143768</v>
+        <v>0.004713209731326677</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.001617519673971777</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.07754404632670134</v>
+        <v>0.02320432817469132</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.00743669253951203</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01896491952711276</v>
+        <v>-0.01250994962086509</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04368034710346089</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-4.061504396783825e-06</v>
+        <v>-0.008077238941951444</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.00655966052003658</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03309336027535578</v>
+        <v>0.009249743303363298</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.04686070967482536</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05742102950015926</v>
+        <v>0.0009756393243415597</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0.003447156709041451</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01546254005593714</v>
+        <v>0.001548352391965243</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.000809142170753028</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.02735777912801255</v>
+        <v>-0.02015362651874953</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.03295679903374411</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3739,82 +3739,82 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02877686449990731</v>
+        <v>0.008479914511066751</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02718376564093527</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01855952766421107</v>
+        <v>0.0004954404088539452</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.008627500203531445</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.0304520176461199</v>
+        <v>-0.003892984825206752</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02321042298651793</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.002170006566682489</v>
+        <v>-0.01910855657457327</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01824844302985401</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.001941871779830742</v>
+        <v>-0.01294433299612246</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.05191647151388491</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.002899627220002326</v>
+        <v>0.0007286634990725826</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.009494881552001882</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02985063753197594</v>
+        <v>-0.02505959382195102</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03474708841811573</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.003327441001117107</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1598441782534993</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01812077354354757</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1474259702599484</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.002885989820369173</v>
+        <v>-0.01295469866843689</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.03229302089970802</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.06491573162366926</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03127642863400706</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1063178944697847</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.07501122270483379</v>
+        <v>-0.08579572347660949</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.0414464576488667</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.01690207329232787</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00430748810665605</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.02053029798234286</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.04978004654933735</v>
+        <v>-0.007112190065739504</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -3927,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0.0004404195113827708</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.07260533574054107</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.003957069625490277</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03669502857103074</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.01120893528539529</v>
+        <v>0.03089643276420275</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3951,28 +3951,28 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.02091155930235896</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03527237911418751</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.006380612537536714</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05197130304675193</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.00078820995308358</v>
+        <v>-0.02123115175749627</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -3981,76 +3981,76 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01545843621013622</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2055580941533943</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.04722857236773555</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.08500306498841281</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.03989712089792601</v>
+        <v>0.09426503569172268</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.004239302032551793</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.0329580318815053</v>
       </c>
       <c r="BE7" t="n">
-        <v>-1.308207511713625e-11</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.08801716564750518</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.0339691833454137</v>
+        <v>-0.06893531175282486</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-3.779176076098112e-11</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.02200036820780597</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0694519289535743</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03804378580454661</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.09251760485082386</v>
+        <v>0.1279808205786425</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,79 +4059,79 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.01782181634533119</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1500567312669785</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.009849337351411289</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1145457902303644</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.07841465935349851</v>
+        <v>0.008906048018662916</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.01404206612626842</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.03795618709292421</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01974614635461478</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.06054408701301805</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02522292817867728</v>
+        <v>0.002275319812897261</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.03862912060577354</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02938741275551267</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.004456040016083512</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.109420270192242</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01907371336617598</v>
+        <v>-0.03331718869211479</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.01482317834823331</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.03413781981068066</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02073098928332756</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.04656676864204634</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01479813824069192</v>
+        <v>0.00938902464382267</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4167,52 +4167,52 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03401074970527295</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.1304320533788376</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03058979334852734</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.03645973582574227</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.02959150668360793</v>
+        <v>0.06281691749830565</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.01712383314904424</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.006106995153658585</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.005380188025134566</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.03260916774903412</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03586131838952242</v>
+        <v>-0.008646745232967171</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4224,22 +4224,22 @@
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.02035937653954237</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.001293759560160577</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02481153197982923</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.05622054516427848</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.02339091168577715</v>
+        <v>-0.01228749681083532</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4251,22 +4251,22 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0.008992368870732766</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>0.00151481227746463</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01256720970327778</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.03599169483606923</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.03082625589812181</v>
+        <v>0.03683582946231873</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -4278,49 +4278,49 @@
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.04467219529405728</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.06350337611852183</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.006372613861599559</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01412951322181693</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.007043048621219655</v>
+        <v>-0.001227567690204946</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.02489336968491425</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.0474362860636997</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01421356794420909</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.03787850256634429</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02432267795779703</v>
+        <v>0.004286771195223887</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
@@ -4329,91 +4329,91 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01979332688753379</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.04667870808198245</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.004152410409862094</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.004683302456163569</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.003741940604816758</v>
+        <v>-0.01894734010178563</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.04867358785099894</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.07430292456645607</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.003225538662861085</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.02778270291603433</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.001770009067952944</v>
+        <v>0.0265023303915967</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.002206943367201865</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.06906699239757963</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.00048061493533324</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.05706243773365691</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03324018377132183</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.5779386492176219</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1360274001434846</v>
+        <v>-0.269515840155497</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06850199011099325</v>
+        <v>-0.009261807338841748</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.09266851998199548</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.3460078482666382</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1082312934102524</v>
+        <v>-0.2498525784849327</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003475060046676787</v>
+        <v>-0.1137715829367261</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1046736852086121</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,79 +5044,79 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.06721673331852601</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.001613480101564303</v>
+        <v>-0.02012696018387201</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.07419383751860383</v>
+        <v>-0.04363310307380162</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.00954702854018492</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1965463539748594</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.07024428364662359</v>
+        <v>-0.02418989208752166</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03462471030638754</v>
+        <v>0.01451801942690739</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.01994001857544399</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.03993523155895554</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.05871032078628639</v>
+        <v>-0.06948443311200087</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0442340216193042</v>
+        <v>-0.1000359528496079</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.005865890951962194</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -5125,16 +5125,16 @@
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.5114235279313086</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.03304369339575046</v>
+        <v>-0.01187893776293625</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.05320939292646701</v>
+        <v>0.2235912401898792</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,133 +5143,133 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1094701438188153</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.01627370865739572</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.09902326971780333</v>
+        <v>-0.1055908518248953</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01306285917979086</v>
+        <v>-0.2223767395597387</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0125942387914641</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.1893077565111072</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01376817649087276</v>
+        <v>0.05749193676311605</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01097416240497481</v>
+        <v>0.1866260949878613</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.03671656241352167</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.3503705078487032</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1026062208597289</v>
+        <v>-0.04429193212990635</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.02992649678012549</v>
+        <v>0.04657628436098563</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1444270793806044</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1364138288666397</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.0334168677207206</v>
+        <v>0.03548303915818336</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01873592398828383</v>
+        <v>-0.03256514414796104</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.02485696867055799</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.04865984857754554</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.08622163998878613</v>
+        <v>-0.1885056184311422</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.1605226386482316</v>
+        <v>-0.1202235793885938</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,34 +5278,34 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01567336160382183</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.1043972137295159</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.03074518615227307</v>
+        <v>0.06637937816721108</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01677325881781897</v>
+        <v>-0.01551756544570414</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.02557604040972081</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
@@ -5314,43 +5314,43 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.02521634712751207</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01315558790791407</v>
+        <v>0.07572956202845867</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.0685700306090755</v>
+        <v>0.05138532784029763</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.06379125360071908</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.1014559959623916</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.008606351943932267</v>
+        <v>-0.005456613520234227</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.01599725685270347</v>
+        <v>-0.04908706905658708</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02576900938236899</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
@@ -5368,52 +5368,52 @@
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.003397612924782084</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.005025986623842345</v>
+        <v>-0.02695069078864664</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01875119616269345</v>
+        <v>-0.01236281404844134</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01667945335108943</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.03612922582675968</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.1128590094107907</v>
+        <v>0.03814159494438138</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.01158683206640522</v>
+        <v>0.05868695677237222</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.05087474635721765</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,133 +5422,133 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.1456851279089308</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.03627415889132991</v>
+        <v>-0.1040062940784021</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03963816000227251</v>
+        <v>-0.03402579424686605</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.05060524362950944</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.1150603336273399</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.03701318319101608</v>
+        <v>0.0574666065290985</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02146213634062298</v>
+        <v>-0.005785701627105936</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.04345800122611783</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.01178924977796799</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.007953209745317257</v>
+        <v>0.05825967718056939</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.02720252531751662</v>
+        <v>0.02709492680039003</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01518313388588628</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.0692897960346671</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.04228883612663246</v>
+        <v>-0.05475188955413969</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.158713463850903</v>
+        <v>0.1525205062709087</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.01699063998222876</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.05155715963055582</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.001596062759238558</v>
+        <v>-0.07284108468546746</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.005458903960753864</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
         <v>-0</v>
@@ -5556,55 +5556,55 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.8824914124715041</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3194934217516253</v>
+        <v>-0.107604902159495</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03758708301042572</v>
+        <v>-0.2503950352976547</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.007673717652584522</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.08743207599720534</v>
+        <v>-0.002230972004913776</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.4691075057992343</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2736068848500421</v>
+        <v>-0.2065033536721434</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.06991921864672739</v>
+        <v>-0.3381481321109409</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02313966995412451</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1533090331579067</v>
+        <v>-0.004053207363134539</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1585185552769114</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.02132885555196209</v>
+        <v>-0.04662201226652574</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.08526849098566745</v>
+        <v>-0.002288980259213516</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01308716902209252</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.02417376213802356</v>
+        <v>-0.002668415307919241</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.2079182216309994</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1275956665097964</v>
+        <v>0.04998814491798044</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.08284151812695824</v>
+        <v>-0.0765746542613351</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03543029925606678</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03211830195113768</v>
+        <v>0.01232558491078395</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.04079430947175432</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.08377041004509139</v>
+        <v>-0.07499949389257658</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04932120362964716</v>
+        <v>-0.1470749459857488</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.02231633868578181</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.00117398092222804</v>
+        <v>0.03304423625339807</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,79 +5694,79 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.7855866555936711</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0987279335097897</v>
+        <v>0.1850755905095575</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0983226782362899</v>
+        <v>0.1636572495861528</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.05851552172351406</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.1199830403404857</v>
+        <v>0.1397076638081912</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.15217354016164</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1797940749669191</v>
+        <v>-0.1876904220444807</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.1092895153417728</v>
+        <v>-0.4110000937007634</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.008810227321589207</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01711651779905108</v>
+        <v>0.01355374237404313</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.5961495049172667</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.009912061179908343</v>
+        <v>0.1931267606105497</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05373497634178531</v>
+        <v>0.3548566108617254</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.05224737770673484</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.08472485212822366</v>
+        <v>0.07122168472805795</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
@@ -5775,295 +5775,295 @@
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.5083589316265239</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1684561776573594</v>
+        <v>0.0305635750944434</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02956017211388792</v>
+        <v>-0.01022804719236843</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.03514010753061404</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.02500406676955904</v>
+        <v>0.06855147339808323</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.2107099724865732</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.08151476973304765</v>
+        <v>-0.04417831381049478</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.004656234828676012</v>
+        <v>0.004395804553019675</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.01578674295638135</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.03189298417695983</v>
+        <v>0.01993089594845424</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.248989378859096</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.05259935234386644</v>
+        <v>-0.2103570033077206</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1241056618341241</v>
+        <v>-0.05736818023973751</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.06283292043148328</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.02150824141204509</v>
+        <v>0.09159061953024743</v>
       </c>
       <c r="CU10" t="n">
         <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.1245024802321199</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.06181430695062238</v>
+        <v>0.02616088548925471</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.00382416572142806</v>
+        <v>-0.009751616793497349</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01029177933099429</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.02062637295900261</v>
+        <v>0.03531605375510617</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.2262662389564301</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.06680730517389785</v>
+        <v>0.02742814771988729</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.04598789271198939</v>
+        <v>0.02294845841214642</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.003974157733558295</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03386003656759488</v>
+        <v>0.01746713198300616</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.2198814427943946</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.05535151884280995</v>
+        <v>-0.03112291219436134</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.112073559210704</v>
+        <v>-0.01195321368497838</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.07144830182260821</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.002896529056517306</v>
+        <v>0.09459294016344508</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.03958807526753103</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.01658213622299901</v>
+        <v>-0.06265120066359631</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.03666093120529339</v>
+        <v>-0.2097132400345102</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.05502411517460471</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.03261850019913863</v>
+        <v>0.04192594901251027</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.1067432654739419</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1890530874014952</v>
+        <v>-0.02737938540497484</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.006918196492282624</v>
+        <v>0.07089478814237535</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.006218410154566145</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0193375731899</v>
+        <v>0.06310825824763396</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1523538945487365</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.0428322404536326</v>
+        <v>0.06025598255904904</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.03695995728827151</v>
+        <v>-0.02888615806846641</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.1024108341175735</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.0318517646138852</v>
+        <v>0.02649402600951551</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.1410873690879125</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.06843806160170518</v>
+        <v>-0.008036629692781161</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01476422863909908</v>
+        <v>0.07838557517818326</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.009319648112793521</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0413055931123696</v>
+        <v>0.008835347435687889</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.1054994500512249</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.07550591878180228</v>
+        <v>-0.1161821291749501</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.07533818297485481</v>
+        <v>-0.07604595251374997</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.004633769964907878</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.009356322047481106</v>
+        <v>-0.05666775912527096</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.2763850111367944</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.03163432454955985</v>
+        <v>-0.2564386912681113</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.04960879990980274</v>
+        <v>-0.2430110994256044</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.09640376880338745</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.04326672076485431</v>
+        <v>-0.04009350333472448</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.1381322721563844</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.09906616253437475</v>
+        <v>-0.1518669249826131</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.003939965745361588</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.03014982240955807</v>
+        <v>0.08237590980716299</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6125,28 +6125,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1164813148737354</v>
+        <v>0.2361746729042613</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2086502919563865</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06333197156212234</v>
+        <v>-0.1562668303376581</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>-0.1054179094778749</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.09366096902610206</v>
+        <v>0.147615926254542</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1555772095107216</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01249225292314292</v>
+        <v>-0.162300666609006</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.1113416187313764</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -6182,19 +6182,19 @@
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.01149515560565737</v>
+        <v>0.04429862826823606</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.04415435218352904</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.08719921640010211</v>
+        <v>0.006395362578906352</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.0374729425164069</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
@@ -6203,25 +6203,25 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.04040565939407455</v>
+        <v>0.05426991948375505</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.07180318466421953</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.06170618103237491</v>
+        <v>0.03264936664952681</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.0290165343968256</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,58 +6230,58 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02107145526541652</v>
+        <v>0.03361344622091719</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0164466961242679</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01388414176690547</v>
+        <v>-0.02840051706029986</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.01659144481375837</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.03143820902073716</v>
+        <v>0.2010050706582955</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.05120409539144959</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0227381139145617</v>
+        <v>-0.01589592748538095</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.008424009239999735</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
@@ -6290,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.03538542550980162</v>
+        <v>0.05872271904879162</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1131362899278759</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.02239190231984621</v>
+        <v>-0.1255201547763204</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.08343898685464807</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,85 +6311,85 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.06278686896956492</v>
+        <v>0.1381687058225971</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02519466533144201</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0008795175399378267</v>
+        <v>0.09524963311976517</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.04455769733595424</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.0288284958975158</v>
+        <v>0.1268713679640782</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.09650078345346795</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.007911000996630394</v>
+        <v>-0.01626362973512931</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.02584788790421731</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03489919051838878</v>
+        <v>-0.04310568812007162</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.04532201804548472</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.005137531334627074</v>
+        <v>0.01857463382003858</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.02837642790597469</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -6398,19 +6398,19 @@
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.03042595885094385</v>
+        <v>-0.057895550688405</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.04206851715676382</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1099817587578142</v>
+        <v>-0.06425753392821913</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.01729511344050071</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6419,109 +6419,109 @@
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03944746061121644</v>
+        <v>-0.02282319409729685</v>
       </c>
       <c r="CX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.0373135755944144</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0005906901317713939</v>
+        <v>0.01759833932814578</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.0311353033511972</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.04673484543026386</v>
+        <v>-0.06177946914354954</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.01162223022959125</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.05649161854982912</v>
+        <v>0.01828349314499414</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.004039184034173708</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01833466652681228</v>
+        <v>-0.05671702525455457</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.002967161165420924</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.03391982667911841</v>
+        <v>0.02172193921499949</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.05131459537071589</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02856535239741168</v>
+        <v>-0.01286734803099763</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03913582350922869</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01069462035008367</v>
+        <v>-0.05051365756545777</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.04037387148924711</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6533,25 +6533,25 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02459770637151489</v>
+        <v>0.006115964904214565</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.0657786370886481</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.03278567952013057</v>
+        <v>0.01327764770986725</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.007929798652410495</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
@@ -6560,100 +6560,100 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.02046547495304799</v>
+        <v>0.02087309233603008</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>-0.004600152792101505</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03111520227520061</v>
+        <v>-0.0001501512886039088</v>
       </c>
       <c r="ET11" t="n">
-        <v>0</v>
+        <v>0.0495291464281629</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03458344470026066</v>
+        <v>-0.01792852028599255</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.03697762665177793</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0100172435401982</v>
+        <v>0.01581282378742448</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.0387907961408977</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04051534587892829</v>
+        <v>-0.03946722410080174</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.03475721228293207</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.01641727897367091</v>
+        <v>-0.04817475118491016</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.03118899602278949</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0.001481807205901083</v>
+        <v>0.001874430614839957</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.03597218867949319</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.05385664653752074</v>
+        <v>-0.007757056706915528</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.01653993114899934</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
@@ -6662,28 +6662,28 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.0184273412847361</v>
+        <v>-0.07139944682268501</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04234603981703112</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.03187526981252528</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,55 +6694,55 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.4857038494992004</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3112379834098529</v>
+        <v>-0.2563330195388681</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02940432999019789</v>
+        <v>-0.1299919261128079</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1381141871183381</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3233719684606484</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2970985470659888</v>
+        <v>-0.2371382925045132</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.09111566129170895</v>
+        <v>-0.1750348690711721</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1777778207322103</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,52 +6751,52 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1235949212683369</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.007055357083825656</v>
+        <v>-0.0003794002677546875</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.09017534418781901</v>
+        <v>0.01294929450906681</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.04970545728901363</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1761068328867836</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1002108431214343</v>
+        <v>0.02551370186668115</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.0127931080777074</v>
+        <v>0.02038438388779524</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.01678840896364271</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,43 +6805,43 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.03611453048599594</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.06480777529152376</v>
+        <v>-0.04347796015630944</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.03950548408926449</v>
+        <v>-0.07494884477442108</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.0183192284062875</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3955957338876275</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.08337436606188446</v>
+        <v>0.01818812565845158</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.0048490702112864</v>
+        <v>0.0948909675839103</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,133 +6850,133 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.154366493334535</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.02046942612455082</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1687236332900277</v>
+        <v>-0.1168920717990579</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.005734902890308887</v>
+        <v>-0.2553209419938666</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0100123682297466</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1633734636919955</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01516956672489386</v>
+        <v>0.06218775608208536</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.00562249895252689</v>
+        <v>0.1107531925975605</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1009568328968947</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2594043417525262</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1021813980961686</v>
+        <v>-0.005002336169420282</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02931498096605779</v>
+        <v>0.05177299767287475</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.08270745989420029</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.1087146245230123</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.07834438376487937</v>
+        <v>0.01400830105711887</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.02401013886924717</v>
+        <v>-0.01519916184780809</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.04813566615250107</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.06717732809015693</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.0567556749235779</v>
+        <v>-0.2060798406736226</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1122907604991919</v>
+        <v>-0.09625531800910977</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,79 +6985,79 @@
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07753976810276765</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.06653435898954452</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.07252777843785953</v>
+        <v>0.0439411222918135</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.02380906000261654</v>
+        <v>-0.01397086488451107</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0454548426680729</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.07041385051135868</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.03833439266878784</v>
+        <v>0.03703715419613036</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1048022966144159</v>
+        <v>0.04049477219723273</v>
       </c>
       <c r="DJ12" t="n">
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.02252020590364949</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.08469818193017416</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01456969224101578</v>
+        <v>0.05403601554365203</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.04103531936928261</v>
+        <v>-0.05469351931380013</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.007279852303347858</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
@@ -7075,16 +7075,16 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.01564753520826137</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02552903163046805</v>
+        <v>0.07909026901754741</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.0754314105718322</v>
+        <v>0.00264733298489378</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7093,142 +7093,142 @@
         <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.0282951696301285</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.03951647963308749</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1526234926625154</v>
+        <v>0.06046634883875845</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.05300633462516968</v>
+        <v>0.08720314064106567</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.06544876396596715</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.07604612716557349</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.04360208573400721</v>
+        <v>0.05072740552368688</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.03326711821006559</v>
+        <v>0.04178438928247994</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.03584373899060612</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.07716661902219166</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.07063981277704798</v>
+        <v>0.04077450092008683</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.02898309892867714</v>
+        <v>0.005493078634962364</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.06356428473854277</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.02309808811103473</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.05971607752715778</v>
+        <v>0.06434650272317458</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0415461016811134</v>
+        <v>-0.04291381873278065</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.03066376223899088</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.05995889039095603</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.005102968133138207</v>
+        <v>-0.07121830700809655</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.08683364197987625</v>
+        <v>0.07065239482110064</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.05635980794319068</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,28 +7237,28 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.0002854322034155686</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.02101067455427831</v>
+        <v>-0.04501170384570371</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.006007090752904578</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1380649834781635</v>
+        <v>0.6491960033571327</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3124087344851076</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05022120505834778</v>
+        <v>-0.1312304420365067</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.5594843168731225</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7290,157 +7290,157 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.129177354157273</v>
+        <v>0.4849395752201171</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2525999686992113</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.005071614564254565</v>
+        <v>-0.07988375542136238</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.5391786834736506</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01470981425320384</v>
+        <v>0.06593330586667155</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.05397242237272702</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1201219698067862</v>
+        <v>-0.09363407223687761</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.01723469502272012</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.05229145774377866</v>
+        <v>0.08122989464182849</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.09677133414173016</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1061709828714874</v>
+        <v>0.03741514197557504</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.02752077832993841</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.01914692642735044</v>
+        <v>0.07169165727170312</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.02195715143260746</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02622650656906213</v>
+        <v>0.02050562571342299</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.0629431842194268</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.08518479860156709</v>
+        <v>0.3783372195420173</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.06200320398609177</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.004482299868957771</v>
+        <v>-0.04756890543563139</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.1864357053543872</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.02833213355614458</v>
+        <v>0.1670451617721851</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.159023622949593</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01408406163154955</v>
+        <v>-0.1479790856720332</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.164787100273906</v>
       </c>
       <c r="BI13" t="n">
         <v>-0</v>
@@ -7449,25 +7449,25 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.05149507543737521</v>
+        <v>0.1598483365010419</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03015378539010536</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.002586306777407013</v>
+        <v>0.0640329688911507</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.001668064508788722</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,52 +7476,52 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.03862872244483554</v>
+        <v>0.2590205497236936</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.1195752074377613</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.06889772068464659</v>
+        <v>-0.0896416996995486</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0.230966366929363</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.04707923358196412</v>
+        <v>-0.1129566115789963</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.06549558160155851</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.006806907118615454</v>
+        <v>-0.01417396591112596</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.1248595666281788</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,49 +7533,49 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.06210718079137476</v>
+        <v>-0.05138453155906408</v>
       </c>
       <c r="CO13" t="n">
         <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.02775335168267836</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1324344464880284</v>
+        <v>0.02534296191756753</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>6.366517331145366e-05</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.03989684199755044</v>
+        <v>-0.08754162367198952</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.06044078656945976</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0042372434407973</v>
+        <v>-0.005186253581491549</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.1309222278306025</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7590,19 +7590,19 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.04644942989181893</v>
+        <v>-0.0517039075820707</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.004596025243987598</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.04392160369194444</v>
+        <v>0.05209906785760798</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0.01426197159839024</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7614,28 +7614,28 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.008269041188085056</v>
+        <v>-0.02774394468693214</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01392318374886477</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.04015424751030372</v>
+        <v>-0.01835016116360393</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.03110256012082827</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,25 +7644,25 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.04453772193367398</v>
+        <v>0.01300385275426536</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.047313300063567</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.009567690081109697</v>
+        <v>0.0288656880586945</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.03680524524745121</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
         <v>-0</v>
@@ -7671,46 +7671,46 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.01548993773998335</v>
+        <v>-0.0706198682164359</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.1071249645030486</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.02394378529180712</v>
+        <v>0.03453375079535356</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.1264628598824051</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.02164796726528277</v>
+        <v>-0.04253599476362236</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.02232363755313306</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02092824440050152</v>
+        <v>0.03893436034583932</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.04139980972365207</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7725,19 +7725,19 @@
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.03959436345506465</v>
+        <v>-0.08174576648939942</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.05666969525390074</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01923344127375779</v>
+        <v>0.0004839230238072151</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>0.1118845114361426</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7746,28 +7746,28 @@
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.0424788422626415</v>
+        <v>-0.07933232617218546</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.08794030811009534</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.03093714275112529</v>
+        <v>0.007607603232923316</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.1108738765643392</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
         <v>-0</v>
@@ -7776,28 +7776,28 @@
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01122413205217694</v>
+        <v>0.01767128780985657</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0004786539301382797</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.09410112382001841</v>
+        <v>0.01549042984246401</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01872596307773345</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
@@ -7806,22 +7806,22 @@
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.03132748184178134</v>
+        <v>0.007100860807210156</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.04503270638785972</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0.01977042331759551</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
@@ -7835,70 +7835,70 @@
         <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.056244141391589</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.129886691526888</v>
+        <v>0.6339838382422479</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01987838765852722</v>
+        <v>0.293416937254075</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.023602258729738</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.6314235289095365</v>
       </c>
       <c r="L14" t="n">
         <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8155592505450027</v>
+        <v>0.5447950976001968</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.3222318071993051</v>
+        <v>0.2587881215301581</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-1.131407023666816</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14" t="n">
         <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0.1829585142669923</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.05674756906908653</v>
+        <v>0.1623940812155586</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.7887467368357557</v>
+        <v>0.1720196442715254</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.4406485876024605</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
         <v>-0</v>
@@ -7916,16 +7916,16 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>-0.03962368754734631</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3296928146036007</v>
+        <v>0.1210128390164647</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.05612470423127044</v>
+        <v>0.06019232678469218</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
@@ -7934,25 +7934,25 @@
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.2811395094091405</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>-0.110471084084112</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1557273602656604</v>
+        <v>0.06869619276235232</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1384018695028559</v>
+        <v>0.06420343274659523</v>
       </c>
       <c r="AP14" t="n">
         <v>-0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.1751923630756311</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>-0</v>
@@ -7970,16 +7970,16 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0.6985688582229974</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.4694584516522374</v>
+        <v>0.08727032550914847</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.3063761795034349</v>
+        <v>0.07230496233130501</v>
       </c>
       <c r="AY14" t="n">
         <v>0</v>
@@ -7988,25 +7988,25 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.702432999074154</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0.1279318912866895</v>
       </c>
       <c r="BE14" t="n">
         <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.5020919531241598</v>
+        <v>0.3153233738213863</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1229395671714631</v>
+        <v>0.3931877233091462</v>
       </c>
       <c r="BH14" t="n">
         <v>-0</v>
@@ -8015,7 +8015,7 @@
         <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.2774476257738393</v>
+        <v>-0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -8024,25 +8024,25 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>-0.1366184817325605</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.08413877414231874</v>
+        <v>0.04134178617385426</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.003106014646272472</v>
+        <v>-0.1066098162024428</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.1986488856765958</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8051,16 +8051,16 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>-0.5186050444803466</v>
       </c>
       <c r="BW14" t="n">
         <v>-0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.4344045820562351</v>
+        <v>0.06068250867844311</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.2066588788553721</v>
+        <v>0.04326517389709278</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
@@ -8069,25 +8069,25 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.5914004948432947</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0.2006118465306387</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.2727341043725494</v>
+        <v>-0.1300078409472474</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.1450959838558608</v>
+        <v>0.02411916163839141</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
@@ -8096,52 +8096,52 @@
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.217675894318706</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.07957014402321512</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.2599296957699163</v>
+        <v>0.005423345855697382</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.6850357689548029</v>
+        <v>0.04532506662251511</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.2495063626591475</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
         <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>0.1717675426007182</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.2509744435824011</v>
+        <v>-0.1542748801600555</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.1634367497928739</v>
+        <v>0.01340364935668867</v>
       </c>
       <c r="DA14" t="n">
         <v>-0</v>
@@ -8150,79 +8150,79 @@
         <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.205565530100546</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0</v>
+        <v>-0.02057139658114979</v>
       </c>
       <c r="DG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.002893674087149659</v>
+        <v>-0.1138316212522552</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.09464614441697679</v>
+        <v>-0.07874040845482118</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.06796163956838225</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>0.1605429565028987</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.01426424716872103</v>
+        <v>0.1440300765615676</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.3301737411531044</v>
+        <v>0.04999556853619143</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.1976637972500012</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>-0.05778347295057583</v>
       </c>
       <c r="DY14" t="n">
         <v>-0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.2171597699913582</v>
+        <v>-0.0674115552838277</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.1380514819030118</v>
+        <v>0.08252695482841645</v>
       </c>
       <c r="EB14" t="n">
         <v>-0</v>
@@ -8231,52 +8231,52 @@
         <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.1616018563721163</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
         <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>0.1289520860103432</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.4670719642203979</v>
+        <v>-0.007454371641427857</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.3569394810734286</v>
+        <v>-0.05983349005528493</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.2807586051744977</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0.02389308443521831</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.02797156474187965</v>
+        <v>-0.1265947083357736</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.05953652834668482</v>
+        <v>0.03083252200740298</v>
       </c>
       <c r="ET14" t="n">
         <v>0</v>
@@ -8285,118 +8285,118 @@
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.03352707700094355</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0.1730605982035738</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.2462104812525394</v>
+        <v>-0.1392480000548824</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.1548903849541358</v>
+        <v>0.01952066603549044</v>
       </c>
       <c r="FC14" t="n">
         <v>0</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.2174363961317055</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>0.1080305165243792</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.1595162427955906</v>
+        <v>-0.03066121987233123</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.2277017244598108</v>
+        <v>0.03780009877150433</v>
       </c>
       <c r="FL14" t="n">
         <v>0</v>
       </c>
       <c r="FM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.2290984917503826</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.0107076798189044</v>
       </c>
       <c r="FR14" t="n">
         <v>0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.005927427539804141</v>
+        <v>-0.007078335424732777</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.01992130287666869</v>
+        <v>0.01900582118128482</v>
       </c>
       <c r="FU14" t="n">
         <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.1971345693683022</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.01155993864220486</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.1500698983306748</v>
+        <v>0.04041453679957378</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
         <v>0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.05720378876613764</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,43 +8404,43 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0.7739952147191567</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1286693853303602</v>
+        <v>-0.4687533989731902</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.06727291759406973</v>
+        <v>-0.1891857816705318</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1775597585584732</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0.640772127829684</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0660058745287424</v>
+        <v>-0.3524027723952133</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.05714329942311571</v>
+        <v>-0.1752461491890104</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
@@ -8449,52 +8449,52 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1468509823545136</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.1642497480570302</v>
       </c>
       <c r="U15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.04217073538995571</v>
+        <v>0.005640032197203</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1239431450088953</v>
+        <v>0.06376561778908978</v>
       </c>
       <c r="X15" t="n">
         <v>-0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
         <v>-0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05753591064867857</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.1639667660290684</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.001787684890266585</v>
+        <v>-0.02224843768651554</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.02208554566088577</v>
+        <v>0.02257493978771179</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -8506,214 +8506,214 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.06413361202832293</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.05935337991450319</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.02916889498242166</v>
+        <v>-0.07284454745930288</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.02725500801859402</v>
+        <v>-0.0653830724718384</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02389706991806369</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>0.3894779945521345</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.08854769543236424</v>
+        <v>-0.1075867400878485</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.02244524232739153</v>
+        <v>0.148477387349493</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1072283750285888</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0.1626556297470318</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.01276282130389968</v>
+        <v>-0.1515930913522684</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03541773092433265</v>
+        <v>-0.2635582081474307</v>
       </c>
       <c r="BH15" t="n">
         <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.002073999328787028</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.1256467119429057</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.009689595774849851</v>
+        <v>0.0526372044823889</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01302410306794133</v>
+        <v>0.1488459099524097</v>
       </c>
       <c r="BQ15" t="n">
         <v>-0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.06715265164725549</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
         <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0.1833657307351888</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.09438113170833898</v>
+        <v>-0.06265335007485752</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.001485018886609271</v>
+        <v>0.08611449052643086</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB15" t="n">
         <v>-0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1467565526539009</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.1142059879698003</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.03948362872516879</v>
+        <v>0.05593419158418832</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.009670721878781726</v>
+        <v>-0.009025246550427687</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0.01943775305515344</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>0.0714342391259539</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.03394594690139383</v>
+        <v>-0.1431337384764385</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.0667974948503702</v>
+        <v>-0.1966119624089456</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0454626216930817</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
         <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.1203719312725842</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.04251619869324342</v>
+        <v>0.08276299459095234</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.004369458192110299</v>
+        <v>-0.01521674420412942</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
@@ -8722,76 +8722,76 @@
         <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0.02861365620560384</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0.07690948638249064</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0234646450973138</v>
+        <v>0.1203080589860175</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.0005928964263426585</v>
+        <v>0.02601791285663516</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.003545664434020884</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.004643044274379681</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.01672555640004507</v>
+        <v>-0.1641398478012508</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.01255335148768844</v>
+        <v>-0.02751478908019808</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.08124302827087013</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.06689639033277768</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.02645345195619366</v>
+        <v>-0.07263940421580696</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.02326602203556903</v>
+        <v>-0.01059719089154332</v>
       </c>
       <c r="EB15" t="n">
         <v>0</v>
@@ -8803,22 +8803,22 @@
         <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.04204561999374085</v>
+        <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.1449170206266219</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.05985157335688412</v>
+        <v>0.1562746768301965</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.04400943351378929</v>
+        <v>0.03024090340202755</v>
       </c>
       <c r="EK15" t="n">
         <v>-0</v>
@@ -8827,25 +8827,25 @@
         <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.03516879814650441</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.1550012043101075</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.04927383406155832</v>
+        <v>0.04770558027040574</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.004638664803691582</v>
+        <v>0.09111015916245507</v>
       </c>
       <c r="ET15" t="n">
         <v>0</v>
@@ -8854,25 +8854,25 @@
         <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.06159834876412425</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.1155115213402834</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.03401369135756032</v>
+        <v>0.07141850579880391</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.00651917263148565</v>
+        <v>0.004103350583980048</v>
       </c>
       <c r="FC15" t="n">
         <v>-0</v>
@@ -8881,52 +8881,52 @@
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0.04118279066768647</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.02888397130636034</v>
       </c>
       <c r="FI15" t="n">
         <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.01507833489054855</v>
+        <v>0.1235308957146278</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.04023267324504445</v>
+        <v>-0.1078321830504056</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.02780432388454399</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.04128364859769069</v>
       </c>
       <c r="FR15" t="n">
         <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.003159975622998956</v>
+        <v>-0.01130357296801947</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0006011381416262664</v>
+        <v>-0.01255504146166384</v>
       </c>
       <c r="FU15" t="n">
         <v>-0</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.01568563491409384</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.07694043120274646</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.04280729333203354</v>
+        <v>-0.08759083563228098</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
@@ -8959,1719 +8959,12 @@
         <v>-0</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.01327666030982692</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.04642073832077537</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.22130822872287</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.06741665027258828</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-0.0186472510749087</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.1976416649540511</v>
-      </c>
-      <c r="P16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.06840978676471722</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>-0.05019966741305259</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.032891356969612</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>-0.02803857577709957</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>-0.0651208766449945</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>-0.02713735901341278</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>-0.01898174540585539</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.03347795701342628</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0.01117063651585517</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0.01462005376424365</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>-0.01810762486538895</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0.08955701777446554</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>-0.03753411273978285</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>-0.01326620237184725</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0.02864129522109835</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>-0.03573793842405519</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>-0.01476701573665258</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>-0.02173658926365195</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0.0007699008325117737</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0.06006878949548409</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0.1054220149724673</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>-0.01423537034420234</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>-0.01262476329008662</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>-0.03995377553825424</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0.02294047579254661</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0.0280409024916644</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>0.07097639316386188</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>0.02954249044051122</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>-0.01430334639317772</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>-0.04353754694512212</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>0.03084920197269811</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>0.01174133303001079</v>
-      </c>
-      <c r="DJ16" t="n">
-        <v>-0.01337384142853938</v>
-      </c>
-      <c r="DK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL16" t="n">
-        <v>-0.006130784157133588</v>
-      </c>
-      <c r="DM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>0.00032735759184571</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>-0.0001151449207246191</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>0.03390425605503056</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.009082656250705402</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>-0.01407421306214212</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>0.007539861981669651</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>-0.03289209385609548</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>-0.06702390045313786</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM16" t="n">
-        <v>-0.01238248848139532</v>
-      </c>
-      <c r="EN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>0.008956324567155316</v>
-      </c>
-      <c r="ET16" t="n">
-        <v>-0.03645648519115209</v>
-      </c>
-      <c r="EU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>0.02697886070581728</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>-0.008234333965365485</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>-0.04372420451834954</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>0.03124760890861557</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>-0.00549339188788639</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>-0.01952184731038778</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>0.04316275698967458</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>0.08484552737036093</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>0.007378357741904957</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>0.004264725036981115</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>0.01804618019418366</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>-0.01351258480379818</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1804413959417553</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.3107346855352596</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4827027230669428</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.2957506192357986</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-0.2487064106110912</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.5670087708951055</v>
-      </c>
-      <c r="R18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.1199213337982717</v>
-      </c>
-      <c r="X18" t="n">
-        <v>-0.04096796754729726</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.1921267732628122</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0.07273822469244133</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>-0.004626002816183989</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>-0.03516145019600504</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>-0.1997038817150033</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>-0.01637064173342304</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>-0.01440173139933177</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0.05045236409040485</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>-0.1460489906182893</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0.2431937338626506</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0.1876056326841953</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>-0.0553823142829964</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0.1277263313490395</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0.01057214933308469</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>0.03041622243097341</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>-0.03908768280339894</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>-0.06320152404107521</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>-0.1842116397622205</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0.1880239243671631</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>-0.06055508797003636</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0.05720979034059745</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>-0.08463859990839746</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>-0.1082933937817789</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>-0.05545812581395446</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>0.04690650594931301</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>-0.05096211959581658</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>0.06321082945896493</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>-0.1201374727776696</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>-0.0429631546875933</v>
-      </c>
-      <c r="DJ18" t="n">
-        <v>0.01665770119355861</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>-0.01718473285454995</v>
-      </c>
-      <c r="DM18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>-0.0388460046371624</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>-0.01226090246031572</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>0.03854398336535459</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>-0.02631677536922451</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>0.005255798996425449</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>-0.02841966646219526</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>-0.04121713973704854</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>0.08233959504916075</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM18" t="n">
-        <v>-0.07975488156371098</v>
-      </c>
-      <c r="EN18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EO18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EP18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EQ18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ER18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ES18" t="n">
-        <v>-0.08977771167481639</v>
-      </c>
-      <c r="ET18" t="n">
-        <v>0.04899017849167746</v>
-      </c>
-      <c r="EU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV18" t="n">
-        <v>-0.06495697130023058</v>
-      </c>
-      <c r="EW18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FA18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FB18" t="n">
-        <v>-0.07174384120598974</v>
-      </c>
-      <c r="FC18" t="n">
-        <v>0.06497393924408891</v>
-      </c>
-      <c r="FD18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FE18" t="n">
-        <v>-0.117674352347182</v>
-      </c>
-      <c r="FF18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FG18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>-0.03628736275816874</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>0.01526965613138732</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FN18" t="n">
-        <v>0.003748641342028974</v>
-      </c>
-      <c r="FO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FQ18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FT18" t="n">
-        <v>-0.006705104922171333</v>
-      </c>
-      <c r="FU18" t="n">
-        <v>-0.01256039298332177</v>
-      </c>
-      <c r="FV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW18" t="n">
-        <v>-0.1088904483713148</v>
-      </c>
-      <c r="FX18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FY18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GD18" t="n">
-        <v>-0.04502515176158242</v>
-      </c>
-      <c r="GE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF18" t="n">
-        <v>0.02149071401548687</v>
-      </c>
-      <c r="GG18" t="n">
         <v>-0</v>
       </c>
     </row>
